--- a/data/case9_AC.xlsx
+++ b/data/case9_AC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22523480-FB5C-46CF-B627-B0B58334C433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB78732A-293B-4A1E-952F-B82CCF1E2512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -404,9 +404,6 @@
     <t>baseMVA</t>
   </si>
   <si>
-    <t>marginal_cost</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -420,6 +417,15 @@
   </si>
   <si>
     <t>Non-GB</t>
+  </si>
+  <si>
+    <t>cost2</t>
+  </si>
+  <si>
+    <t>cost1</t>
+  </si>
+  <si>
+    <t>cost0</t>
   </si>
 </sst>
 </file>
@@ -797,15 +803,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377B432-B755-4411-A970-729F4FF71B71}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -849,15 +855,21 @@
         <v>2</v>
       </c>
       <c r="O1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -893,18 +905,24 @@
         <v>1E-4</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -940,10 +958,16 @@
         <v>1E-4</v>
       </c>
       <c r="N3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O3">
         <v>20</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/case9_AC.xlsx
+++ b/data/case9_AC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB78732A-293B-4A1E-952F-B82CCF1E2512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A420E08-4B7F-4FCE-9C7C-83E986C0E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -417,15 +417,6 @@
   </si>
   <si>
     <t>Non-GB</t>
-  </si>
-  <si>
-    <t>cost2</t>
-  </si>
-  <si>
-    <t>cost1</t>
-  </si>
-  <si>
-    <t>cost0</t>
   </si>
 </sst>
 </file>
@@ -855,13 +846,13 @@
         <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="Q1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
